--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H2">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I2">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J2">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>212.941451191077</v>
+        <v>367.8251810746969</v>
       </c>
       <c r="R2">
-        <v>1916.473060719693</v>
+        <v>3310.426629672272</v>
       </c>
       <c r="S2">
-        <v>0.02043106044401275</v>
+        <v>0.03421834186926442</v>
       </c>
       <c r="T2">
-        <v>0.02043106044401275</v>
+        <v>0.03421834186926442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H3">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I3">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J3">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>34.017164424222</v>
+        <v>52.50481062529199</v>
       </c>
       <c r="R3">
-        <v>306.154479817998</v>
+        <v>472.5432956276279</v>
       </c>
       <c r="S3">
-        <v>0.003263839607543367</v>
+        <v>0.004884460477958342</v>
       </c>
       <c r="T3">
-        <v>0.003263839607543367</v>
+        <v>0.004884460477958343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H4">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I4">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J4">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>51.82462506393667</v>
+        <v>62.27320374494443</v>
       </c>
       <c r="R4">
-        <v>466.42162557543</v>
+        <v>560.4588337044999</v>
       </c>
       <c r="S4">
-        <v>0.00497240927610414</v>
+        <v>0.005793202544787523</v>
       </c>
       <c r="T4">
-        <v>0.004972409276104139</v>
+        <v>0.005793202544787525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1523.209716666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H5">
-        <v>4569.62915</v>
+        <v>236.655266</v>
       </c>
       <c r="I5">
-        <v>0.854383206146807</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J5">
-        <v>0.854383206146807</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>6346.378647215549</v>
+        <v>6.356428969612222</v>
       </c>
       <c r="R5">
-        <v>57117.40782493995</v>
+        <v>57.20786072651</v>
       </c>
       <c r="S5">
-        <v>0.6089150093445315</v>
+        <v>0.0005913310744913806</v>
       </c>
       <c r="T5">
-        <v>0.6089150093445315</v>
+        <v>0.0005913310744913807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1523.209716666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H6">
-        <v>4569.62915</v>
+        <v>236.655266</v>
       </c>
       <c r="I6">
-        <v>0.854383206146807</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J6">
-        <v>0.854383206146807</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>1013.8270624773</v>
+        <v>13.19116452684</v>
       </c>
       <c r="R6">
-        <v>9124.443562295699</v>
+        <v>118.72048074156</v>
       </c>
       <c r="S6">
-        <v>0.09727350817508457</v>
+        <v>0.00122715844552649</v>
       </c>
       <c r="T6">
-        <v>0.09727350817508457</v>
+        <v>0.00122715844552649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I7">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J7">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>1544.549884797167</v>
+        <v>7102.418204980755</v>
       </c>
       <c r="R7">
-        <v>13900.9489631745</v>
+        <v>63921.7638448268</v>
       </c>
       <c r="S7">
-        <v>0.148194688627191</v>
+        <v>0.6607295713861535</v>
       </c>
       <c r="T7">
-        <v>0.1481946886271909</v>
+        <v>0.6607295713861536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.839165666666667</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H8">
-        <v>5.517497000000001</v>
+        <v>4569.62915</v>
       </c>
       <c r="I8">
-        <v>0.00103160598421108</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J8">
-        <v>0.00103160598421108</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.166450999999999</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N8">
-        <v>12.499353</v>
+        <v>1.996758</v>
       </c>
       <c r="O8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q8">
-        <v>7.662793631049</v>
+        <v>1013.8270624773</v>
       </c>
       <c r="R8">
-        <v>68.965142679441</v>
+        <v>9124.443562295699</v>
       </c>
       <c r="S8">
-        <v>0.0007352208739550397</v>
+        <v>0.09431513339788253</v>
       </c>
       <c r="T8">
-        <v>0.0007352208739550396</v>
+        <v>0.09431513339788254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.839165666666667</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H9">
-        <v>5.517497000000001</v>
+        <v>4569.62915</v>
       </c>
       <c r="I9">
-        <v>0.00103160598421108</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J9">
-        <v>0.00103160598421108</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6655859999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N9">
-        <v>1.996758</v>
+        <v>2.36825</v>
       </c>
       <c r="O9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q9">
-        <v>1.224122919414</v>
+        <v>1202.447137165277</v>
       </c>
       <c r="R9">
-        <v>11.017106274726</v>
+        <v>10822.0242344875</v>
       </c>
       <c r="S9">
-        <v>0.0001174507321968359</v>
+        <v>0.111862236019355</v>
       </c>
       <c r="T9">
-        <v>0.0001174507321968358</v>
+        <v>0.111862236019355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.839165666666667</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H10">
-        <v>5.517497000000001</v>
+        <v>4569.62915</v>
       </c>
       <c r="I10">
-        <v>0.00103160598421108</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J10">
-        <v>0.00103160598421108</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.01401</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N10">
-        <v>3.04203</v>
+        <v>0.241735</v>
       </c>
       <c r="O10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q10">
-        <v>1.864932377656667</v>
+        <v>122.7377002861389</v>
       </c>
       <c r="R10">
-        <v>16.78439139891</v>
+        <v>1104.63930257525</v>
       </c>
       <c r="S10">
-        <v>0.0001789343780592043</v>
+        <v>0.01141814319608943</v>
       </c>
       <c r="T10">
-        <v>0.0001789343780592043</v>
+        <v>0.01141814319608943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>196.5440926666667</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H11">
-        <v>589.632278</v>
+        <v>4569.62915</v>
       </c>
       <c r="I11">
-        <v>0.1102435010782627</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J11">
-        <v>0.1102435010782627</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.166450999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N11">
-        <v>12.499353</v>
+        <v>0.50166</v>
       </c>
       <c r="O11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q11">
-        <v>818.8913314351259</v>
+        <v>254.711128821</v>
       </c>
       <c r="R11">
-        <v>7370.021982916134</v>
+        <v>2292.400159389</v>
       </c>
       <c r="S11">
-        <v>0.07857003977406074</v>
+        <v>0.02369547527561265</v>
       </c>
       <c r="T11">
-        <v>0.07857003977406074</v>
+        <v>0.02369547527561265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>196.5440926666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H12">
-        <v>589.632278</v>
+        <v>0.515584</v>
       </c>
       <c r="I12">
-        <v>0.1102435010782627</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J12">
-        <v>0.1102435010782627</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6655859999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N12">
-        <v>1.996758</v>
+        <v>13.988392</v>
       </c>
       <c r="O12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q12">
-        <v>130.816996461636</v>
+        <v>0.8013545667697779</v>
       </c>
       <c r="R12">
-        <v>1177.352968154724</v>
+        <v>7.212191100928001</v>
       </c>
       <c r="S12">
-        <v>0.01255147810284052</v>
+        <v>7.454906823971888E-05</v>
       </c>
       <c r="T12">
-        <v>0.01255147810284052</v>
+        <v>7.454906823971891E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>196.5440926666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H13">
-        <v>589.632278</v>
+        <v>0.515584</v>
       </c>
       <c r="I13">
-        <v>0.1102435010782627</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J13">
-        <v>0.1102435010782627</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01401</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N13">
-        <v>3.04203</v>
+        <v>1.996758</v>
       </c>
       <c r="O13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q13">
-        <v>199.2976754049267</v>
+        <v>0.114388497408</v>
       </c>
       <c r="R13">
-        <v>1793.67907864434</v>
+        <v>1.029496476672</v>
       </c>
       <c r="S13">
-        <v>0.01912198320136138</v>
+        <v>1.064142672011226E-05</v>
       </c>
       <c r="T13">
-        <v>0.01912198320136138</v>
+        <v>1.064142672011226E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,25 +1278,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.619322333333334</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H14">
-        <v>4.857967</v>
+        <v>0.515584</v>
       </c>
       <c r="I14">
-        <v>0.0009082937114963446</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J14">
-        <v>0.0009082937114963446</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,95 +1305,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.166450999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N14">
-        <v>12.499353</v>
+        <v>2.36825</v>
       </c>
       <c r="O14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q14">
-        <v>6.746827155039</v>
+        <v>0.1356702008888889</v>
       </c>
       <c r="R14">
-        <v>60.721444395351</v>
+        <v>1.221031808</v>
       </c>
       <c r="S14">
-        <v>0.0006473367803162815</v>
+        <v>1.262123844246817E-05</v>
       </c>
       <c r="T14">
-        <v>0.0006473367803162815</v>
+        <v>1.262123844246817E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.619322333333334</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H15">
-        <v>4.857967</v>
+        <v>0.515584</v>
       </c>
       <c r="I15">
-        <v>0.0009082937114963446</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J15">
-        <v>0.0009082937114963446</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.6655859999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N15">
-        <v>1.996758</v>
+        <v>0.241735</v>
       </c>
       <c r="O15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q15">
-        <v>1.077798274554</v>
+        <v>0.01384829980444444</v>
       </c>
       <c r="R15">
-        <v>9.700184470986001</v>
+        <v>0.12463469824</v>
       </c>
       <c r="S15">
-        <v>0.0001034113441544356</v>
+        <v>1.2882909637454E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001034113441544356</v>
+        <v>1.2882909637454E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.619322333333334</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H16">
-        <v>4.857967</v>
+        <v>0.515584</v>
       </c>
       <c r="I16">
-        <v>0.0009082937114963446</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J16">
-        <v>0.0009082937114963446</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.01401</v>
+        <v>0.16722</v>
       </c>
       <c r="N16">
-        <v>3.04203</v>
+        <v>0.50166</v>
       </c>
       <c r="O16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P16">
-        <v>0.1734522490154458</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q16">
-        <v>1.642009039223334</v>
+        <v>0.02873865216</v>
       </c>
       <c r="R16">
-        <v>14.77808135301</v>
+        <v>0.25864786944</v>
       </c>
       <c r="S16">
-        <v>0.0001575455870256275</v>
+        <v>2.673522844737077E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001575455870256275</v>
+        <v>2.673522844737078E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.497059666666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H17">
-        <v>25.491179</v>
+        <v>253.386768</v>
       </c>
       <c r="I17">
-        <v>0.004766083751562676</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J17">
-        <v>0.004766083751562675</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N17">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P17">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q17">
-        <v>35.402582745243</v>
+        <v>393.8303820441174</v>
       </c>
       <c r="R17">
-        <v>318.623244707187</v>
+        <v>3544.473438397057</v>
       </c>
       <c r="S17">
-        <v>0.003396766124662026</v>
+        <v>0.03663757498035979</v>
       </c>
       <c r="T17">
-        <v>0.003396766124662025</v>
+        <v>0.03663757498035979</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.497059666666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H18">
-        <v>25.491179</v>
+        <v>253.386768</v>
       </c>
       <c r="I18">
-        <v>0.004766083751562676</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J18">
-        <v>0.004766083751562675</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>1.996758</v>
       </c>
       <c r="O18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P18">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q18">
-        <v>5.655523955297999</v>
+        <v>56.216895122016</v>
       </c>
       <c r="R18">
-        <v>50.89971559768199</v>
+        <v>505.952056098144</v>
       </c>
       <c r="S18">
-        <v>0.0005426296811961304</v>
+        <v>0.005229791311441174</v>
       </c>
       <c r="T18">
-        <v>0.0005426296811961303</v>
+        <v>0.005229791311441175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.497059666666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H19">
-        <v>25.491179</v>
+        <v>253.386768</v>
       </c>
       <c r="I19">
-        <v>0.004766083751562676</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J19">
-        <v>0.004766083751562675</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,772 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N19">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O19">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P19">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q19">
-        <v>8.616103472596668</v>
+        <v>66.67591259066667</v>
       </c>
       <c r="R19">
-        <v>77.54493125337</v>
+        <v>600.083213316</v>
       </c>
       <c r="S19">
-        <v>0.0008266879457045196</v>
+        <v>0.006202781345220883</v>
       </c>
       <c r="T19">
-        <v>0.0008266879457045192</v>
+        <v>0.006202781345220885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>84.46225600000001</v>
+      </c>
+      <c r="H20">
+        <v>253.386768</v>
+      </c>
+      <c r="I20">
+        <v>0.05001720417164889</v>
+      </c>
+      <c r="J20">
+        <v>0.05001720417164889</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>6.805827818053334</v>
+      </c>
+      <c r="R20">
+        <v>61.25245036248</v>
+      </c>
+      <c r="S20">
+        <v>0.0006331381182252593</v>
+      </c>
+      <c r="T20">
+        <v>0.0006331381182252594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>84.46225600000001</v>
+      </c>
+      <c r="H21">
+        <v>253.386768</v>
+      </c>
+      <c r="I21">
+        <v>0.05001720417164889</v>
+      </c>
+      <c r="J21">
+        <v>0.05001720417164889</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>14.12377844832</v>
+      </c>
+      <c r="R21">
+        <v>127.11400603488</v>
+      </c>
+      <c r="S21">
+        <v>0.001313918416401777</v>
+      </c>
+      <c r="T21">
+        <v>0.001313918416401777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.301947666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.905843</v>
+      </c>
+      <c r="I22">
+        <v>0.0007709926936413885</v>
+      </c>
+      <c r="J22">
+        <v>0.0007709926936413884</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N22">
+        <v>13.988392</v>
+      </c>
+      <c r="O22">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P22">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q22">
+        <v>6.07071810827289</v>
+      </c>
+      <c r="R22">
+        <v>54.636462974456</v>
+      </c>
+      <c r="S22">
+        <v>0.0005647517307376264</v>
+      </c>
+      <c r="T22">
+        <v>0.0005647517307376264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.301947666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.905843</v>
+      </c>
+      <c r="I23">
+        <v>0.0007709926936413885</v>
+      </c>
+      <c r="J23">
+        <v>0.0007709926936413884</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.996758</v>
+      </c>
+      <c r="O23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q23">
+        <v>0.8665581396659999</v>
+      </c>
+      <c r="R23">
+        <v>7.799023256993999</v>
+      </c>
+      <c r="S23">
+        <v>8.061487956329799E-05</v>
+      </c>
+      <c r="T23">
+        <v>8.061487956329799E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.301947666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.905843</v>
+      </c>
+      <c r="I24">
+        <v>0.0007709926936413885</v>
+      </c>
+      <c r="J24">
+        <v>0.0007709926936413884</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N24">
+        <v>2.36825</v>
+      </c>
+      <c r="O24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q24">
+        <v>1.027779187194444</v>
+      </c>
+      <c r="R24">
+        <v>9.250012684749999</v>
+      </c>
+      <c r="S24">
+        <v>9.561308307054759E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.56130830705476E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.301947666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.905843</v>
+      </c>
+      <c r="I25">
+        <v>0.0007709926936413885</v>
+      </c>
+      <c r="J25">
+        <v>0.0007709926936413884</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.241735</v>
+      </c>
+      <c r="O25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q25">
+        <v>0.1049087730672222</v>
+      </c>
+      <c r="R25">
+        <v>0.944178957605</v>
+      </c>
+      <c r="S25">
+        <v>9.759539168609235E-06</v>
+      </c>
+      <c r="T25">
+        <v>9.759539168609237E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.301947666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.905843</v>
+      </c>
+      <c r="I26">
+        <v>0.0007709926936413885</v>
+      </c>
+      <c r="J26">
+        <v>0.0007709926936413884</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.16722</v>
+      </c>
+      <c r="N26">
+        <v>0.50166</v>
+      </c>
+      <c r="O26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q26">
+        <v>0.21771168882</v>
+      </c>
+      <c r="R26">
+        <v>1.95940519938</v>
+      </c>
+      <c r="S26">
+        <v>2.025346110130726E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.025346110130726E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6332083333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.899625</v>
+      </c>
+      <c r="I27">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="J27">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N27">
+        <v>13.988392</v>
+      </c>
+      <c r="O27">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P27">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q27">
+        <v>2.952522128111112</v>
+      </c>
+      <c r="R27">
+        <v>26.572699153</v>
+      </c>
+      <c r="S27">
+        <v>0.0002746696440441829</v>
+      </c>
+      <c r="T27">
+        <v>0.0002746696440441829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6332083333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.899625</v>
+      </c>
+      <c r="I28">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="J28">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.996758</v>
+      </c>
+      <c r="O28">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P28">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q28">
+        <v>0.4214546017499999</v>
+      </c>
+      <c r="R28">
+        <v>3.79309141575</v>
+      </c>
+      <c r="S28">
+        <v>3.920742349101844E-05</v>
+      </c>
+      <c r="T28">
+        <v>3.920742349101844E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6332083333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.899625</v>
+      </c>
+      <c r="I29">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="J29">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N29">
+        <v>2.36825</v>
+      </c>
+      <c r="O29">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P29">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q29">
+        <v>0.4998652118055555</v>
+      </c>
+      <c r="R29">
+        <v>4.498786906249999</v>
+      </c>
+      <c r="S29">
+        <v>4.650186987236532E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.650186987236532E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6332083333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.899625</v>
+      </c>
+      <c r="I30">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="J30">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N30">
+        <v>0.241735</v>
+      </c>
+      <c r="O30">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P30">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q30">
+        <v>0.05102287215277778</v>
+      </c>
+      <c r="R30">
+        <v>0.459205849375</v>
+      </c>
+      <c r="S30">
+        <v>4.746597493337371E-06</v>
+      </c>
+      <c r="T30">
+        <v>4.746597493337373E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6332083333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.899625</v>
+      </c>
+      <c r="I31">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="J31">
+        <v>0.0003749759003775939</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.16722</v>
+      </c>
+      <c r="N31">
+        <v>0.50166</v>
+      </c>
+      <c r="O31">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P31">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q31">
+        <v>0.1058850975</v>
+      </c>
+      <c r="R31">
+        <v>0.9529658775000001</v>
+      </c>
+      <c r="S31">
+        <v>9.850365476689871E-06</v>
+      </c>
+      <c r="T31">
+        <v>9.850365476689872E-06</v>
       </c>
     </row>
   </sheetData>
